--- a/artfynd/A 44162-2021 artfynd.xlsx
+++ b/artfynd/A 44162-2021 artfynd.xlsx
@@ -3613,7 +3613,7 @@
         <v>130876516</v>
       </c>
       <c r="B26" t="n">
-        <v>56832</v>
+        <v>56836</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
